--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Victory.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Victory.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="74">
   <si>
     <t>STT</t>
   </si>
@@ -255,13 +255,25 @@
     <t>WP21110069S00497/0032001320</t>
   </si>
   <si>
-    <t>Thiết bị không nhận sim</t>
-  </si>
-  <si>
     <t>125.212.203.250,21083</t>
   </si>
   <si>
     <t>V3.3.21.5_R22090903</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt sim</t>
   </si>
 </sst>
 </file>
@@ -713,29 +725,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -755,10 +746,31 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1100,41 +1112,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1179,58 +1191,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1255,23 +1267,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1281,7 +1293,9 @@
       <c r="B6" s="61">
         <v>44922</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44925</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
       </c>
@@ -1292,26 +1306,38 @@
       <c r="G6" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="62" t="s">
+        <v>69</v>
+      </c>
       <c r="I6" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="93" t="s">
-        <v>69</v>
-      </c>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>70</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1342,7 +1368,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1371,7 +1397,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1400,7 +1426,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1429,7 +1455,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1458,7 +1484,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1487,7 +1513,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1518,7 +1544,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1547,7 +1573,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1576,7 +1602,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1605,7 +1631,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1723,7 +1749,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2224,7 +2250,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -2256,7 +2282,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3321,6 +3347,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3332,13 +3365,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3382,39 +3408,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3459,58 +3485,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3535,23 +3561,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3577,7 +3603,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3608,7 +3634,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3637,7 +3663,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3666,7 +3692,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3695,7 +3721,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3724,7 +3750,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3753,7 +3779,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3784,7 +3810,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3813,7 +3839,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3842,7 +3868,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3871,7 +3897,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5587,13 +5613,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5605,6 +5624,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5648,39 +5674,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5725,58 +5751,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5801,23 +5827,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5843,7 +5869,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5874,7 +5900,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5903,7 +5929,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5932,7 +5958,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5961,7 +5987,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5990,7 +6016,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6019,7 +6045,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6050,7 +6076,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6079,7 +6105,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6108,7 +6134,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6137,7 +6163,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7853,13 +7879,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7871,6 +7890,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7914,39 +7940,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7991,58 +8017,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8067,23 +8093,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8109,7 +8135,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8140,7 +8166,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8169,7 +8195,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8198,7 +8224,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8227,7 +8253,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8256,7 +8282,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8285,7 +8311,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8316,7 +8342,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8345,7 +8371,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8374,7 +8400,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8403,7 +8429,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10119,13 +10145,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10137,6 +10156,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10180,39 +10206,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10257,58 +10283,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10333,23 +10359,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10375,7 +10401,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10406,7 +10432,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10435,7 +10461,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10464,7 +10490,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10493,7 +10519,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10522,7 +10548,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10551,7 +10577,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10582,7 +10608,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10611,7 +10637,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10640,7 +10666,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10669,7 +10695,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12385,13 +12411,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12403,6 +12422,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12446,39 +12472,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12523,58 +12549,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12599,23 +12625,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12641,7 +12667,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12672,7 +12698,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12701,7 +12727,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12730,7 +12756,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12759,7 +12785,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12788,7 +12814,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12817,7 +12843,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12848,7 +12874,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12877,7 +12903,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12906,7 +12932,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12935,7 +12961,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14651,13 +14677,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14669,6 +14688,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14712,39 +14738,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14789,58 +14815,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14865,23 +14891,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14907,7 +14933,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14938,7 +14964,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14967,7 +14993,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -14996,7 +15022,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15025,7 +15051,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15054,7 +15080,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15083,7 +15109,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15114,7 +15140,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15143,7 +15169,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15172,7 +15198,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15201,7 +15227,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16917,13 +16943,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16935,6 +16954,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16978,39 +17004,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17055,58 +17081,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17131,23 +17157,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17173,7 +17199,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17204,7 +17230,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17233,7 +17259,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17262,7 +17288,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17291,7 +17317,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17320,7 +17346,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17349,7 +17375,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17380,7 +17406,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17409,7 +17435,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17438,7 +17464,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17467,7 +17493,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19183,13 +19209,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19201,6 +19220,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19244,39 +19270,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19321,58 +19347,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19397,23 +19423,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19439,7 +19465,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19470,7 +19496,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19499,7 +19525,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19528,7 +19554,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19557,7 +19583,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19586,7 +19612,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19615,7 +19641,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19646,7 +19672,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19675,7 +19701,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19704,7 +19730,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19733,7 +19759,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20964,6 +20990,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20975,13 +21008,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
